--- a/정원/project_3/2_4_지청_신설_표준화.xlsx
+++ b/정원/project_3/2_4_지청_신설_표준화.xlsx
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H2" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
         <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2" t="n">
         <v>60427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6487675441659103</v>
+        <v>0.6669131524054432</v>
       </c>
       <c r="M2" t="n">
         <v>672870</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7759729428981195</v>
+        <v>0.7852558117822799</v>
       </c>
       <c r="O2" t="n">
-        <v>2013</v>
+        <v>1979</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2493606138107417</v>
+        <v>0.3232603724273113</v>
       </c>
       <c r="Q2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3458646616541353</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="S2" t="n">
-        <v>5044</v>
+        <v>4958</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07695358984529949</v>
+        <v>0.07564153418972935</v>
       </c>
       <c r="U2" t="n">
-        <v>10098</v>
+        <v>9926</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4691612255148167</v>
+        <v>0.4802825760874825</v>
       </c>
     </row>
     <row r="3">
@@ -672,25 +672,25 @@
         <v>60696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6518981449153923</v>
+        <v>0.6698820179456333</v>
       </c>
       <c r="M3" t="n">
         <v>730965</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8467019895930478</v>
+        <v>0.8530541032583325</v>
       </c>
       <c r="O3" t="n">
         <v>2063</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2584947022287175</v>
+        <v>0.3369813786344332</v>
       </c>
       <c r="Q3" t="n">
         <v>9</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04511278195488722</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="S3" t="n">
         <v>69</v>
@@ -702,7 +702,7 @@
         <v>17926</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8623304871923656</v>
+        <v>0.8673731068853728</v>
       </c>
     </row>
     <row r="4">
@@ -752,25 +752,25 @@
         <v>73619</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8022949980215535</v>
+        <v>0.8125089672983323</v>
       </c>
       <c r="M4" t="n">
         <v>735728</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8525008096190043</v>
+        <v>0.8586126412099711</v>
       </c>
       <c r="O4" t="n">
         <v>5303</v>
       </c>
       <c r="P4" t="n">
-        <v>0.850383631713555</v>
+        <v>0.8662201894805619</v>
       </c>
       <c r="Q4" t="n">
         <v>23</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1503759398496241</v>
+        <v>0.1691176470588235</v>
       </c>
       <c r="S4" t="n">
         <v>8782</v>
@@ -782,7 +782,7 @@
         <v>16209</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7760924158714214</v>
+        <v>0.7842938017128755</v>
       </c>
     </row>
     <row r="5">
@@ -832,25 +832,25 @@
         <v>52899</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5611572748644182</v>
+        <v>0.5838290639796042</v>
       </c>
       <c r="M5" t="n">
         <v>528901</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6006946896298154</v>
+        <v>0.6172404537391467</v>
       </c>
       <c r="O5" t="n">
         <v>2163</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2767628790646693</v>
+        <v>0.3533159098333878</v>
       </c>
       <c r="Q5" t="n">
         <v>14</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08270676691729323</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="S5" t="n">
         <v>1664</v>
@@ -862,7 +862,7 @@
         <v>10795</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5041687594173782</v>
+        <v>0.5223302849954033</v>
       </c>
     </row>
     <row r="6">
@@ -912,25 +912,25 @@
         <v>60319</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6475106486977167</v>
+        <v>0.665721191519419</v>
       </c>
       <c r="M6" t="n">
         <v>719842</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8331600464587386</v>
+        <v>0.8400732891420035</v>
       </c>
       <c r="O6" t="n">
         <v>2827</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3980635732553891</v>
+        <v>0.4617771969944462</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="S6" t="n">
         <v>9494</v>
@@ -942,7 +942,7 @@
         <v>12562</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5929181315921647</v>
+        <v>0.6078289059853873</v>
       </c>
     </row>
     <row r="7">
@@ -992,25 +992,25 @@
         <v>43328</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4497707329562648</v>
+        <v>0.4781970487931396</v>
       </c>
       <c r="M7" t="n">
         <v>350066</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3829680510948728</v>
+        <v>0.4085356175893941</v>
       </c>
       <c r="O7" t="n">
         <v>2072</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2601388381439532</v>
+        <v>0.3384514864423391</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09022556390977443</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="S7" t="n">
         <v>4999</v>
@@ -1022,7 +1022,7 @@
         <v>7886</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3580612757408338</v>
+        <v>0.3815744907340204</v>
       </c>
     </row>
     <row r="8">
@@ -1072,25 +1072,25 @@
         <v>63504</v>
       </c>
       <c r="L8" t="n">
-        <v>0.684577427088425</v>
+        <v>0.700873000982264</v>
       </c>
       <c r="M8" t="n">
         <v>580994</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6641164682592826</v>
+        <v>0.6780342638409113</v>
       </c>
       <c r="O8" t="n">
         <v>2222</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2875411033978809</v>
+        <v>0.362953283240771</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09022556390977443</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="S8" t="n">
         <v>558</v>
@@ -1102,7 +1102,7 @@
         <v>11845</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5569060773480663</v>
+        <v>0.5731359171626265</v>
       </c>
     </row>
     <row r="9">
@@ -1152,19 +1152,19 @@
         <v>58023</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6207899820776017</v>
+        <v>0.6403809860165329</v>
       </c>
       <c r="M9" t="n">
         <v>534171</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6071107680545038</v>
+        <v>0.6233906731397628</v>
       </c>
       <c r="O9" t="n">
         <v>4594</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7208622579466569</v>
+        <v>0.7504083632799738</v>
       </c>
       <c r="Q9" t="n">
         <v>136</v>
@@ -1182,7 +1182,7 @@
         <v>14981</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7144148669010547</v>
+        <v>0.7248754052353994</v>
       </c>
     </row>
     <row r="10">
@@ -1232,25 +1232,25 @@
         <v>46944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4918534552987455</v>
+        <v>0.5181056651252111</v>
       </c>
       <c r="M10" t="n">
         <v>396227</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4391677847119583</v>
+        <v>0.4624066380356643</v>
       </c>
       <c r="O10" t="n">
         <v>3780</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5721592985020095</v>
+        <v>0.6174452793204835</v>
       </c>
       <c r="Q10" t="n">
         <v>39</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2706766917293233</v>
+        <v>0.2867647058823529</v>
       </c>
       <c r="S10" t="n">
         <v>65546</v>
@@ -1262,7 +1262,7 @@
         <v>12137</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5715720743345052</v>
+        <v>0.5872647215367494</v>
       </c>
     </row>
     <row r="11">
@@ -1312,25 +1312,25 @@
         <v>55733</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5941391429834975</v>
+        <v>0.6151070005628704</v>
       </c>
       <c r="M11" t="n">
         <v>401360</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4454170694470485</v>
+        <v>0.4683969750723555</v>
       </c>
       <c r="O11" t="n">
         <v>3093</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4466569236390209</v>
+        <v>0.5052270499836655</v>
       </c>
       <c r="Q11" t="n">
         <v>29</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1954887218045113</v>
+        <v>0.2132352941176471</v>
       </c>
       <c r="S11" t="n">
         <v>108</v>
@@ -1342,7 +1342,7 @@
         <v>11129</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5209442491210446</v>
+        <v>0.5384913146562152</v>
       </c>
     </row>
     <row r="12">
@@ -1377,40 +1377,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
         <v>40440</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4161604171030887</v>
+        <v>0.4463231317668613</v>
       </c>
       <c r="M12" t="n">
         <v>294750</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3156223596071948</v>
+        <v>0.3439804873494539</v>
       </c>
       <c r="O12" t="n">
-        <v>2994</v>
+        <v>2936</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.4795818360013068</v>
       </c>
       <c r="Q12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2706766917293233</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10484</v>
+        <v>10279</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4885484681064792</v>
+        <v>0.4973629457589394</v>
       </c>
     </row>
     <row r="13">
@@ -1472,25 +1472,25 @@
         <v>61089</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6564718478690967</v>
+        <v>0.6742194311697771</v>
       </c>
       <c r="M13" t="n">
         <v>469642</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5285485053093962</v>
+        <v>0.5480837456820091</v>
       </c>
       <c r="O13" t="n">
         <v>3734</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5637559371574717</v>
+        <v>0.6099313949689644</v>
       </c>
       <c r="Q13" t="n">
         <v>39</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2706766917293233</v>
+        <v>0.2867647058823529</v>
       </c>
       <c r="S13" t="n">
         <v>1789</v>
@@ -1502,7 +1502,7 @@
         <v>14308</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6806127574083375</v>
+        <v>0.6923114143320269</v>
       </c>
     </row>
     <row r="14">
@@ -1537,52 +1537,52 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H14" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" t="n">
         <v>77514</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8476247003235343</v>
+        <v>0.8554968159192998</v>
       </c>
       <c r="M14" t="n">
         <v>699439</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8083199614304811</v>
+        <v>0.8162624871627299</v>
       </c>
       <c r="O14" t="n">
-        <v>5518</v>
+        <v>5393</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8896602119108512</v>
+        <v>0.8809212675596211</v>
       </c>
       <c r="Q14" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8120300751879699</v>
+        <v>0.8014705882352942</v>
       </c>
       <c r="S14" t="n">
-        <v>35694</v>
+        <v>34886</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5445641229060507</v>
+        <v>0.5322369023281359</v>
       </c>
       <c r="U14" t="n">
-        <v>20011</v>
+        <v>19558</v>
       </c>
       <c r="V14" t="n">
-        <v>0.967051732797589</v>
+        <v>0.9463395751681425</v>
       </c>
     </row>
     <row r="15">
@@ -1650,7 +1650,7 @@
         <v>57</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4060150375939849</v>
+        <v>0.4191176470588235</v>
       </c>
       <c r="S15" t="n">
         <v>1081</v>
@@ -1662,7 +1662,7 @@
         <v>20667</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1712,25 +1712,25 @@
         <v>54959</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5851313921281103</v>
+        <v>0.6065646142130299</v>
       </c>
       <c r="M16" t="n">
         <v>484050</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5460898445775006</v>
+        <v>0.5648982354588741</v>
       </c>
       <c r="O16" t="n">
         <v>2824</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3975155279503105</v>
+        <v>0.4612871610584776</v>
       </c>
       <c r="Q16" t="n">
         <v>16</v>
       </c>
       <c r="R16" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="S16" t="n">
         <v>1803</v>
@@ -1742,7 +1742,7 @@
         <v>9318</v>
       </c>
       <c r="V16" t="n">
-        <v>0.429984932194877</v>
+        <v>0.4508636957468428</v>
       </c>
     </row>
     <row r="17">
@@ -1792,25 +1792,25 @@
         <v>54764</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5828619975327608</v>
+        <v>0.6044124626132639</v>
       </c>
       <c r="M17" t="n">
         <v>443180</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4963317563010273</v>
+        <v>0.5172019419288582</v>
       </c>
       <c r="O17" t="n">
         <v>3761</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5686883449031787</v>
+        <v>0.6143417183926821</v>
       </c>
       <c r="Q17" t="n">
         <v>29</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1954887218045113</v>
+        <v>0.2132352941176471</v>
       </c>
       <c r="S17" t="n">
         <v>381</v>
@@ -1822,7 +1822,7 @@
         <v>11653</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5472626820693118</v>
+        <v>0.563845744423477</v>
       </c>
     </row>
     <row r="18">
@@ -1857,52 +1857,52 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H18" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
         <v>30231</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2973488815957918</v>
+        <v>0.3336497180129571</v>
       </c>
       <c r="M18" t="n">
         <v>320407</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3468590435051511</v>
+        <v>0.3739228363364765</v>
       </c>
       <c r="O18" t="n">
-        <v>2088</v>
+        <v>2233</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2630617464377055</v>
+        <v>0.364750081672656</v>
       </c>
       <c r="Q18" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2932330827067669</v>
+        <v>0.3308823529411765</v>
       </c>
       <c r="S18" t="n">
-        <v>13508</v>
+        <v>14444</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2060842766911787</v>
+        <v>0.2203643242913374</v>
       </c>
       <c r="U18" t="n">
-        <v>7573</v>
+        <v>8097</v>
       </c>
       <c r="V18" t="n">
-        <v>0.342340532395781</v>
+        <v>0.3917840034838148</v>
       </c>
     </row>
     <row r="19">
@@ -1952,25 +1952,25 @@
         <v>20440</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1834019970672439</v>
+        <v>0.2255896343549615</v>
       </c>
       <c r="M19" t="n">
         <v>145603</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1340400353553923</v>
+        <v>0.1699222761646905</v>
       </c>
       <c r="O19" t="n">
         <v>1493</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1543660942637925</v>
+        <v>0.243874550800392</v>
       </c>
       <c r="Q19" t="n">
         <v>49</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3458646616541353</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>3033</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1143144148669011</v>
+        <v>0.1467556974887502</v>
       </c>
     </row>
     <row r="20">
@@ -2032,25 +2032,25 @@
         <v>19525</v>
       </c>
       <c r="L20" t="n">
-        <v>0.172753299350604</v>
+        <v>0.2154910768483671</v>
       </c>
       <c r="M20" t="n">
         <v>134358</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1203495606142878</v>
+        <v>0.1567990850527495</v>
       </c>
       <c r="O20" t="n">
         <v>1649</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1828644501278772</v>
+        <v>0.2693564194707612</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09022556390977443</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>2953</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1102963335007534</v>
+        <v>0.1428847921807713</v>
       </c>
     </row>
     <row r="21">
@@ -2112,25 +2112,25 @@
         <v>16180</v>
       </c>
       <c r="L21" t="n">
-        <v>0.133824453599609</v>
+        <v>0.1785733994062269</v>
       </c>
       <c r="M21" t="n">
         <v>143513</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1314955184848802</v>
+        <v>0.1674831948464196</v>
       </c>
       <c r="O21" t="n">
         <v>1183</v>
       </c>
       <c r="P21" t="n">
-        <v>0.09773474607234198</v>
+        <v>0.1932375040836328</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07518796992481203</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>2793</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1022601707684581</v>
+        <v>0.1351429815648135</v>
       </c>
     </row>
     <row r="22">
@@ -2192,25 +2192,25 @@
         <v>4681</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.05166267506925513</v>
       </c>
       <c r="M22" t="n">
         <v>35506</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.0414363738213052</v>
       </c>
       <c r="O22" t="n">
         <v>1966</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2407745706978443</v>
+        <v>0.3211368833714472</v>
       </c>
       <c r="Q22" t="n">
         <v>6</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02255639097744361</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>757</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.03662844147675037</v>
       </c>
     </row>
     <row r="23">
@@ -2272,25 +2272,25 @@
         <v>4764</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009659474431487555</v>
+        <v>0.05257871908351452</v>
       </c>
       <c r="M23" t="n">
         <v>38002</v>
       </c>
       <c r="N23" t="n">
-        <v>0.003038810578372339</v>
+        <v>0.04434926710857996</v>
       </c>
       <c r="O23" t="n">
         <v>1193</v>
       </c>
       <c r="P23" t="n">
-        <v>0.09956156375593714</v>
+        <v>0.1948709572035283</v>
       </c>
       <c r="Q23" t="n">
         <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>768</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0005524861878453066</v>
+        <v>0.03716069095659747</v>
       </c>
     </row>
     <row r="24">
@@ -2352,25 +2352,25 @@
         <v>59393</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6367339338500571</v>
+        <v>0.655501230589248</v>
       </c>
       <c r="M24" t="n">
         <v>528051</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5996598382709947</v>
+        <v>0.6162484828680795</v>
       </c>
       <c r="O24" t="n">
         <v>3326</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4892217756667885</v>
+        <v>0.5432865076772296</v>
       </c>
       <c r="Q24" t="n">
         <v>134</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9849624060150375</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="S24" t="n">
         <v>632</v>
@@ -2382,7 +2382,7 @@
         <v>10360</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4823204419889502</v>
+        <v>0.501282237383268</v>
       </c>
     </row>
     <row r="25">
@@ -2432,37 +2432,37 @@
         <v>45561</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4757582105532668</v>
+        <v>0.5028419437791782</v>
       </c>
       <c r="M25" t="n">
         <v>370280</v>
       </c>
       <c r="N25" t="n">
-        <v>0.407578033879816</v>
+        <v>0.4321258519279246</v>
       </c>
       <c r="O25" t="n">
         <v>2330</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3072707343807088</v>
+        <v>0.380594576935642</v>
       </c>
       <c r="Q25" t="n">
         <v>28</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1879699248120301</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="S25" t="n">
         <v>1077</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01643120861684924</v>
+        <v>0.01643120861684923</v>
       </c>
       <c r="U25" t="n">
         <v>9022</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4151180311401306</v>
+        <v>0.4365413461073209</v>
       </c>
     </row>
     <row r="26">
@@ -2512,25 +2512,25 @@
         <v>33159</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3314247142890394</v>
+        <v>0.3659651020340592</v>
       </c>
       <c r="M26" t="n">
         <v>259238</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2723874873078524</v>
+        <v>0.3025371113808235</v>
       </c>
       <c r="O26" t="n">
         <v>2320</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3054439166971136</v>
+        <v>0.3789611238157465</v>
       </c>
       <c r="Q26" t="n">
         <v>28</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1879699248120301</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="S26" t="n">
         <v>14168</v>
@@ -2542,7 +2542,7 @@
         <v>5786</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2525866398794576</v>
+        <v>0.2799632263995742</v>
       </c>
     </row>
     <row r="27">
@@ -2592,25 +2592,25 @@
         <v>44692</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4656448572027093</v>
+        <v>0.4932510733166312</v>
       </c>
       <c r="M27" t="n">
         <v>424004</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4729855096460321</v>
+        <v>0.4948230790775838</v>
       </c>
       <c r="O27" t="n">
         <v>3653</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5489587139203508</v>
+        <v>0.5967004246978111</v>
       </c>
       <c r="Q27" t="n">
         <v>35</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.2573529411764706</v>
       </c>
       <c r="S27" t="n">
         <v>6254</v>
@@ -2622,7 +2622,7 @@
         <v>8386</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3831742842792566</v>
+        <v>0.4057676489088886</v>
       </c>
     </row>
     <row r="28">
@@ -2657,52 +2657,52 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" t="n">
         <v>23293</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2166049856853572</v>
+        <v>0.2570772677607691</v>
       </c>
       <c r="M28" t="n">
         <v>233124</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2405944186205066</v>
+        <v>0.2720614321725329</v>
       </c>
       <c r="O28" t="n">
-        <v>2967</v>
+        <v>2857</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4236390208257216</v>
+        <v>0.4666775563541327</v>
       </c>
       <c r="Q28" t="n">
         <v>19</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="S28" t="n">
-        <v>28789</v>
+        <v>27714</v>
       </c>
       <c r="T28" t="n">
-        <v>0.439218258932658</v>
+        <v>0.4228175632380313</v>
       </c>
       <c r="U28" t="n">
-        <v>5153</v>
+        <v>4961</v>
       </c>
       <c r="V28" t="n">
-        <v>0.2207935710698142</v>
+        <v>0.2400445154110418</v>
       </c>
     </row>
     <row r="29">
@@ -2752,25 +2752,25 @@
         <v>41994</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4342457463398739</v>
+        <v>0.4634741245157659</v>
       </c>
       <c r="M29" t="n">
         <v>353194</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3867763040953329</v>
+        <v>0.4121860703949211</v>
       </c>
       <c r="O29" t="n">
         <v>3484</v>
       </c>
       <c r="P29" t="n">
-        <v>0.5180854950675923</v>
+        <v>0.569095066971578</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07518796992481203</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="S29" t="n">
         <v>151</v>
@@ -2782,7 +2782,7 @@
         <v>7848</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3561526870919136</v>
+        <v>0.3797358107127304</v>
       </c>
     </row>
     <row r="30">
@@ -2832,25 +2832,25 @@
         <v>26614</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2552545213323092</v>
+        <v>0.293730065006015</v>
       </c>
       <c r="M30" t="n">
         <v>207734</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2096827997964387</v>
+        <v>0.2424306787414807</v>
       </c>
       <c r="O30" t="n">
         <v>1651</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1832298136645963</v>
+        <v>0.2696831100947403</v>
       </c>
       <c r="Q30" t="n">
         <v>31</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2279411764705882</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>3536</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1395781014565545</v>
+        <v>0.1710940146126675</v>
       </c>
     </row>
     <row r="31">
@@ -2912,25 +2912,25 @@
         <v>13289</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1001792239834276</v>
+        <v>0.1466663723553368</v>
       </c>
       <c r="M31" t="n">
         <v>127697</v>
       </c>
       <c r="N31" t="n">
-        <v>0.112239978377694</v>
+        <v>0.1490255344972458</v>
       </c>
       <c r="O31" t="n">
         <v>2358</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3123858238947753</v>
+        <v>0.3851682456713492</v>
       </c>
       <c r="Q31" t="n">
         <v>27</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1804511278195489</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="S31" t="n">
         <v>3864</v>
@@ -2942,7 +2942,7 @@
         <v>3278</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1266197890507283</v>
+        <v>0.1586103449944356</v>
       </c>
     </row>
     <row r="32">
@@ -2977,52 +2977,52 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H32" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" t="n">
         <v>39960</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4105742150222285</v>
+        <v>0.4410255278289757</v>
       </c>
       <c r="M32" t="n">
         <v>337520</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3676936450386791</v>
+        <v>0.3938941275324433</v>
       </c>
       <c r="O32" t="n">
-        <v>2518</v>
+        <v>2449</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3416149068322981</v>
+        <v>0.4000326690623979</v>
       </c>
       <c r="Q32" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3609022556390977</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="S32" t="n">
-        <v>2619</v>
+        <v>2547</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03995667165044396</v>
+        <v>0.03885820645043176</v>
       </c>
       <c r="U32" t="n">
-        <v>7219</v>
+        <v>7021</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3245605223505776</v>
+        <v>0.3397203270914985</v>
       </c>
     </row>
     <row r="33">
@@ -3072,25 +3072,25 @@
         <v>51504</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5449223750669181</v>
+        <v>0.5684329025351242</v>
       </c>
       <c r="M33" t="n">
         <v>438973</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4912098508109582</v>
+        <v>0.512292269629353</v>
       </c>
       <c r="O33" t="n">
         <v>3500</v>
       </c>
       <c r="P33" t="n">
-        <v>0.5210084033613446</v>
+        <v>0.5717085919634106</v>
       </c>
       <c r="Q33" t="n">
         <v>33</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2255639097744361</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="S33" t="n">
         <v>2178</v>
@@ -3102,7 +3102,7 @@
         <v>9109</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4194876946258162</v>
+        <v>0.4407509556297479</v>
       </c>
     </row>
     <row r="34">
@@ -3152,25 +3152,25 @@
         <v>32073</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3187859320810931</v>
+        <v>0.353979273124593</v>
       </c>
       <c r="M34" t="n">
         <v>298970</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3207600922356929</v>
+        <v>0.3489053309681636</v>
       </c>
       <c r="O34" t="n">
         <v>2987</v>
       </c>
       <c r="P34" t="n">
-        <v>0.427292656192912</v>
+        <v>0.4879124469127736</v>
       </c>
       <c r="Q34" t="n">
         <v>19</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="S34" t="n">
         <v>26678</v>
@@ -3182,7 +3182,7 @@
         <v>6366</v>
       </c>
       <c r="V34" t="n">
-        <v>0.2817177297840281</v>
+        <v>0.3080272898824212</v>
       </c>
     </row>
     <row r="35">
@@ -3232,25 +3232,25 @@
         <v>19882</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1769080371482439</v>
+        <v>0.2194311697771695</v>
       </c>
       <c r="M35" t="n">
         <v>209501</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2118340731505989</v>
+        <v>0.2444928111287462</v>
       </c>
       <c r="O35" t="n">
         <v>1195</v>
       </c>
       <c r="P35" t="n">
-        <v>0.09992692729265618</v>
+        <v>0.1951976478275073</v>
       </c>
       <c r="Q35" t="n">
         <v>11</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06015037593984962</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="S35" t="n">
         <v>476</v>
@@ -3262,7 +3262,7 @@
         <v>3484</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1369663485685585</v>
+        <v>0.1685779261624812</v>
       </c>
     </row>
     <row r="36">
@@ -3312,25 +3312,25 @@
         <v>10473</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06740683844238066</v>
+        <v>0.1155870959197413</v>
       </c>
       <c r="M36" t="n">
         <v>77555</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05119348798476699</v>
+        <v>0.09050858930071888</v>
       </c>
       <c r="O36" t="n">
         <v>1043</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0721592985020095</v>
+        <v>0.1703691604050964</v>
       </c>
       <c r="Q36" t="n">
         <v>12</v>
       </c>
       <c r="R36" t="n">
-        <v>0.06766917293233082</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>1572</v>
       </c>
       <c r="V36" t="n">
-        <v>0.04093420391762934</v>
+        <v>0.07606328930178545</v>
       </c>
     </row>
     <row r="37">
@@ -3392,25 +3392,25 @@
         <v>9770</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05922537997812072</v>
+        <v>0.107828313485713</v>
       </c>
       <c r="M37" t="n">
         <v>71258</v>
       </c>
       <c r="N37" t="n">
-        <v>0.04352706562418582</v>
+        <v>0.08315983568294277</v>
       </c>
       <c r="O37" t="n">
         <v>700</v>
       </c>
       <c r="P37" t="n">
-        <v>0.009499451954694926</v>
+        <v>0.1143417183926821</v>
       </c>
       <c r="Q37" t="n">
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="S37" t="n">
         <v>327</v>
@@ -3422,7 +3422,7 @@
         <v>1444</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03450527373179307</v>
+        <v>0.06986984080901922</v>
       </c>
     </row>
     <row r="38">
@@ -3457,52 +3457,52 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H38" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I38" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J38" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38" t="n">
         <v>72964</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7946721597653795</v>
+        <v>0.8052799452580927</v>
       </c>
       <c r="M38" t="n">
         <v>553675</v>
       </c>
       <c r="N38" t="n">
-        <v>0.6308563455867851</v>
+        <v>0.6461523200448137</v>
       </c>
       <c r="O38" t="n">
-        <v>4444</v>
+        <v>4344</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6934599926927293</v>
+        <v>0.7095720352825874</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3533834586466165</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="S38" t="n">
-        <v>2294</v>
+        <v>2243</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03499832178927776</v>
+        <v>0.03422024227260245</v>
       </c>
       <c r="U38" t="n">
-        <v>13630</v>
+        <v>13325</v>
       </c>
       <c r="V38" t="n">
-        <v>0.646559517830236</v>
+        <v>0.6447476653602361</v>
       </c>
     </row>
     <row r="39">
@@ -3552,25 +3552,25 @@
         <v>41269</v>
       </c>
       <c r="L39" t="n">
-        <v>0.4258082536135744</v>
+        <v>0.4554725352345845</v>
       </c>
       <c r="M39" t="n">
         <v>309238</v>
       </c>
       <c r="N39" t="n">
-        <v>0.333261096650247</v>
+        <v>0.3608883390906545</v>
       </c>
       <c r="O39" t="n">
         <v>2533</v>
       </c>
       <c r="P39" t="n">
-        <v>0.3443551333576909</v>
+        <v>0.4137536752695198</v>
       </c>
       <c r="Q39" t="n">
         <v>10</v>
       </c>
       <c r="R39" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="S39" t="n">
         <v>325</v>
@@ -3582,7 +3582,7 @@
         <v>6425</v>
       </c>
       <c r="V39" t="n">
-        <v>0.284681064791562</v>
+        <v>0.3108820825470557</v>
       </c>
     </row>
     <row r="40">
@@ -3632,25 +3632,25 @@
         <v>14046</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1089891301817843</v>
+        <v>0.1550211352323772</v>
       </c>
       <c r="M40" t="n">
         <v>115940</v>
       </c>
       <c r="N40" t="n">
-        <v>0.09792615787692331</v>
+        <v>0.1353048268135562</v>
       </c>
       <c r="O40" t="n">
         <v>1158</v>
       </c>
       <c r="P40" t="n">
-        <v>0.09316770186335402</v>
+        <v>0.1891538712838942</v>
       </c>
       <c r="Q40" t="n">
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="S40" t="n">
         <v>36</v>
@@ -3662,7 +3662,7 @@
         <v>2589</v>
       </c>
       <c r="V40" t="n">
-        <v>0.09201406328478152</v>
+        <v>0.1252721730294673</v>
       </c>
     </row>
     <row r="41">
@@ -3712,25 +3712,25 @@
         <v>13903</v>
       </c>
       <c r="L41" t="n">
-        <v>0.107324907478528</v>
+        <v>0.1534428907258821</v>
       </c>
       <c r="M41" t="n">
         <v>105165</v>
       </c>
       <c r="N41" t="n">
-        <v>0.08480789506363727</v>
+        <v>0.1227301372420876</v>
       </c>
       <c r="O41" t="n">
         <v>1112</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08476434051881621</v>
+        <v>0.181639986932375</v>
       </c>
       <c r="Q41" t="n">
         <v>12</v>
       </c>
       <c r="R41" t="n">
-        <v>0.06766917293233082</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S41" t="n">
         <v>245</v>
@@ -3742,7 +3742,7 @@
         <v>2746</v>
       </c>
       <c r="V41" t="n">
-        <v>0.09989954796584631</v>
+        <v>0.1328688246963759</v>
       </c>
     </row>
     <row r="42">
@@ -3792,25 +3792,25 @@
         <v>24070</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2256476503037498</v>
+        <v>0.2656527641352213</v>
       </c>
       <c r="M42" t="n">
         <v>162516</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1546311424515507</v>
+        <v>0.189660162449818</v>
       </c>
       <c r="O42" t="n">
         <v>2048</v>
       </c>
       <c r="P42" t="n">
-        <v>0.2557544757033248</v>
+        <v>0.33453119895459</v>
       </c>
       <c r="Q42" t="n">
         <v>18</v>
       </c>
       <c r="R42" t="n">
-        <v>0.112781954887218</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="S42" t="n">
         <v>280</v>
@@ -3822,7 +3822,7 @@
         <v>4205</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1731793068809643</v>
+        <v>0.2034644602506411</v>
       </c>
     </row>
     <row r="43">
@@ -3872,25 +3872,25 @@
         <v>31316</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3099760258827363</v>
+        <v>0.3456245102475526</v>
       </c>
       <c r="M43" t="n">
         <v>288244</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3077014855595624</v>
+        <v>0.3363878255998506</v>
       </c>
       <c r="O43" t="n">
         <v>2669</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3691998538545853</v>
+        <v>0.435968637700098</v>
       </c>
       <c r="Q43" t="n">
         <v>24</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="S43" t="n">
         <v>19739</v>
@@ -3902,7 +3902,7 @@
         <v>4915</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2088397790055249</v>
+        <v>0.2378187448589539</v>
       </c>
     </row>
     <row r="44">
@@ -3937,52 +3937,52 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H44" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J44" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K44" t="n">
         <v>64811</v>
       </c>
       <c r="L44" t="n">
-        <v>0.6997881898377675</v>
+        <v>0.7152979350381317</v>
       </c>
       <c r="M44" t="n">
         <v>589858</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6749081417235023</v>
+        <v>0.6883787694893101</v>
       </c>
       <c r="O44" t="n">
-        <v>4600</v>
+        <v>4409</v>
       </c>
       <c r="P44" t="n">
-        <v>0.7219583485568141</v>
+        <v>0.7201894805619079</v>
       </c>
       <c r="Q44" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8796992481203008</v>
+        <v>0.8455882352941176</v>
       </c>
       <c r="S44" t="n">
-        <v>48347</v>
+        <v>46341</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7376041253470845</v>
+        <v>0.7069996643578556</v>
       </c>
       <c r="U44" t="n">
-        <v>10539</v>
+        <v>10101</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4913108990457057</v>
+        <v>0.4887501814486863</v>
       </c>
     </row>
     <row r="45">
@@ -4032,37 +4032,37 @@
         <v>42589</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4411703093359403</v>
+        <v>0.4700409460637699</v>
       </c>
       <c r="M45" t="n">
         <v>409454</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4552712893273953</v>
+        <v>0.477842871814023</v>
       </c>
       <c r="O45" t="n">
         <v>3492</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5195469492144684</v>
+        <v>0.5704018294674943</v>
       </c>
       <c r="Q45" t="n">
         <v>36</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2481203007518797</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="S45" t="n">
         <v>5803</v>
       </c>
       <c r="T45" t="n">
-        <v>0.08853324382876149</v>
+        <v>0.08853324382876147</v>
       </c>
       <c r="U45" t="n">
         <v>7463</v>
       </c>
       <c r="V45" t="n">
-        <v>0.336815670517328</v>
+        <v>0.361107078918082</v>
       </c>
     </row>
     <row r="46">
@@ -4112,25 +4112,25 @@
         <v>52513</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5566650373577264</v>
+        <v>0.5795689074795546</v>
       </c>
       <c r="M46" t="n">
         <v>520282</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5902012968513735</v>
+        <v>0.6071818691065261</v>
       </c>
       <c r="O46" t="n">
         <v>4147</v>
       </c>
       <c r="P46" t="n">
-        <v>0.6392035074899525</v>
+        <v>0.6773930088206469</v>
       </c>
       <c r="Q46" t="n">
         <v>56</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3984962406015037</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="S46" t="n">
         <v>12016</v>
@@ -4142,7 +4142,7 @@
         <v>11791</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5541938724259166</v>
+        <v>0.5705230560797406</v>
       </c>
     </row>
     <row r="47">
@@ -4192,25 +4192,25 @@
         <v>22501</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2073877522519377</v>
+        <v>0.2483362212632578</v>
       </c>
       <c r="M47" t="n">
         <v>207051</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2088512662928215</v>
+        <v>0.2416336009709644</v>
       </c>
       <c r="O47" t="n">
         <v>2021</v>
       </c>
       <c r="P47" t="n">
-        <v>0.2508220679576179</v>
+        <v>0.3301208755308723</v>
       </c>
       <c r="Q47" t="n">
         <v>34</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2330827067669173</v>
+        <v>0.25</v>
       </c>
       <c r="S47" t="n">
         <v>132</v>
@@ -4222,7 +4222,7 @@
         <v>4139</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1698643897538925</v>
+        <v>0.2002709633715585</v>
       </c>
     </row>
     <row r="48">
@@ -4272,25 +4272,25 @@
         <v>12784</v>
       </c>
       <c r="L48" t="n">
-        <v>0.09430207387752251</v>
+        <v>0.1410928515456863</v>
       </c>
       <c r="M48" t="n">
         <v>98232</v>
       </c>
       <c r="N48" t="n">
-        <v>0.07636716039222084</v>
+        <v>0.1146391560078424</v>
       </c>
       <c r="O48" t="n">
         <v>1136</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08914870295944463</v>
+        <v>0.1855602744201242</v>
       </c>
       <c r="Q48" t="n">
         <v>19</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="S48" t="n">
         <v>26460</v>
@@ -4302,7 +4302,7 @@
         <v>2117</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0683073832245103</v>
+        <v>0.1024338317123917</v>
       </c>
     </row>
     <row r="49">
@@ -4352,25 +4352,25 @@
         <v>8270</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04176849847543235</v>
+        <v>0.09127330117982055</v>
       </c>
       <c r="M49" t="n">
         <v>82587</v>
       </c>
       <c r="N49" t="n">
-        <v>0.05731980802898558</v>
+        <v>0.09638105685743628</v>
       </c>
       <c r="O49" t="n">
         <v>648</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>0.1058477621692257</v>
       </c>
       <c r="Q49" t="n">
         <v>11</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06015037593984962</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="S49" t="n">
         <v>39405</v>
@@ -4382,7 +4382,7 @@
         <v>1556</v>
       </c>
       <c r="V49" t="n">
-        <v>0.04013058764439981</v>
+        <v>0.07528910824018968</v>
       </c>
     </row>
     <row r="50">
@@ -4420,7 +4420,7 @@
         <v>165</v>
       </c>
       <c r="H50" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" t="n">
         <v>23</v>
@@ -4432,37 +4432,37 @@
         <v>58026</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6208248958406071</v>
+        <v>0.6404140960411447</v>
       </c>
       <c r="M50" t="n">
         <v>572007</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6531750457160806</v>
+        <v>0.6675462141723462</v>
       </c>
       <c r="O50" t="n">
-        <v>4189</v>
+        <v>4169</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6468761417610522</v>
+        <v>0.6809866056844168</v>
       </c>
       <c r="Q50" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R50" t="n">
-        <v>0.6165413533834587</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="S50" t="n">
-        <v>27096</v>
+        <v>26968</v>
       </c>
       <c r="T50" t="n">
-        <v>0.4133890702712599</v>
+        <v>0.411436243249016</v>
       </c>
       <c r="U50" t="n">
-        <v>15190</v>
+        <v>15119</v>
       </c>
       <c r="V50" t="n">
-        <v>0.7249121044701154</v>
+        <v>0.731552716891663</v>
       </c>
     </row>
     <row r="51">
@@ -4497,52 +4497,52 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H51" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J51" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K51" t="n">
         <v>35745</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3615203779996742</v>
+        <v>0.3945059432494178</v>
       </c>
       <c r="M51" t="n">
         <v>304785</v>
       </c>
       <c r="N51" t="n">
-        <v>0.3278396930022134</v>
+        <v>0.3556915787508169</v>
       </c>
       <c r="O51" t="n">
-        <v>2111</v>
+        <v>2211</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2672634271099744</v>
+        <v>0.361156484808886</v>
       </c>
       <c r="Q51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1838235294117647</v>
       </c>
       <c r="S51" t="n">
-        <v>1090</v>
+        <v>1141</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01662954261129588</v>
+        <v>0.0174076221279712</v>
       </c>
       <c r="U51" t="n">
-        <v>6476</v>
+        <v>6781</v>
       </c>
       <c r="V51" t="n">
-        <v>0.2872425916624812</v>
+        <v>0.3281076111675618</v>
       </c>
     </row>
     <row r="52">
@@ -4577,52 +4577,52 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H52" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I52" t="n">
         <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K52" t="n">
         <v>35915</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3634988245699788</v>
+        <v>0.396382177977419</v>
       </c>
       <c r="M52" t="n">
         <v>446013</v>
       </c>
       <c r="N52" t="n">
-        <v>0.4997808550063674</v>
+        <v>0.5205081224908972</v>
       </c>
       <c r="O52" t="n">
-        <v>1196</v>
+        <v>1230</v>
       </c>
       <c r="P52" t="n">
-        <v>0.1001096090610157</v>
+        <v>0.2009147337471414</v>
       </c>
       <c r="Q52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1954887218045113</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="S52" t="n">
-        <v>2998</v>
+        <v>3084</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04573887041161932</v>
+        <v>0.04705092606718946</v>
       </c>
       <c r="U52" t="n">
-        <v>6001</v>
+        <v>6173</v>
       </c>
       <c r="V52" t="n">
-        <v>0.2633852335509794</v>
+        <v>0.2986887308269222</v>
       </c>
     </row>
     <row r="53">
@@ -4657,52 +4657,52 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H53" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K53" t="n">
         <v>18535</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1612317575588297</v>
+        <v>0.2045647687264781</v>
       </c>
       <c r="M53" t="n">
         <v>148593</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1376802771940675</v>
+        <v>0.1734116795817384</v>
       </c>
       <c r="O53" t="n">
-        <v>1017</v>
+        <v>1208</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06740957252466204</v>
+        <v>0.1973211368833714</v>
       </c>
       <c r="Q53" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1729323308270677</v>
+        <v>0.2279411764705882</v>
       </c>
       <c r="S53" t="n">
-        <v>10686</v>
+        <v>12692</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1630305434351448</v>
+        <v>0.1936350044243737</v>
       </c>
       <c r="U53" t="n">
-        <v>2329</v>
+        <v>2767</v>
       </c>
       <c r="V53" t="n">
-        <v>0.07895529884480161</v>
+        <v>0.1338849373397203</v>
       </c>
     </row>
     <row r="54">
@@ -4737,40 +4737,40 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H54" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
         <v>31038</v>
       </c>
       <c r="L54" t="n">
-        <v>0.306740683844238</v>
+        <v>0.3425563146335272</v>
       </c>
       <c r="M54" t="n">
         <v>201310</v>
       </c>
       <c r="N54" t="n">
-        <v>0.2018617584681278</v>
+        <v>0.2349337130053216</v>
       </c>
       <c r="O54" t="n">
-        <v>2119</v>
+        <v>2177</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2687248812568506</v>
+        <v>0.3556027442012414</v>
       </c>
       <c r="Q54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1879699248120301</v>
+        <v>0.2132352941176471</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4779,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>7418</v>
+        <v>7623</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3345554997488699</v>
+        <v>0.3688488895340398</v>
       </c>
     </row>
     <row r="55">
@@ -4817,52 +4817,52 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H55" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K55" t="n">
         <v>27199</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2620627051183577</v>
+        <v>0.3001865198053131</v>
       </c>
       <c r="M55" t="n">
         <v>193144</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1919198805903279</v>
+        <v>0.225403790495752</v>
       </c>
       <c r="O55" t="n">
-        <v>1508</v>
+        <v>1577</v>
       </c>
       <c r="P55" t="n">
-        <v>0.1571063207891852</v>
+        <v>0.2575955570075139</v>
       </c>
       <c r="Q55" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="S55" t="n">
-        <v>1569</v>
+        <v>1641</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0239373874835993</v>
+        <v>0.02503585268361151</v>
       </c>
       <c r="U55" t="n">
-        <v>4323</v>
+        <v>4521</v>
       </c>
       <c r="V55" t="n">
-        <v>0.1791059768960321</v>
+        <v>0.2187545362171578</v>
       </c>
     </row>
     <row r="56">
@@ -4897,52 +4897,52 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H56" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K56" t="n">
         <v>14833</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1181481740101948</v>
+        <v>0.1637069983555355</v>
       </c>
       <c r="M56" t="n">
         <v>197688</v>
       </c>
       <c r="N56" t="n">
-        <v>0.1974520742073648</v>
+        <v>0.2307067500700215</v>
       </c>
       <c r="O56" t="n">
-        <v>1936</v>
+        <v>2046</v>
       </c>
       <c r="P56" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3342045083306109</v>
       </c>
       <c r="Q56" t="n">
         <v>13</v>
       </c>
       <c r="R56" t="n">
-        <v>0.07518796992481203</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="S56" t="n">
-        <v>18779</v>
+        <v>19854</v>
       </c>
       <c r="T56" t="n">
-        <v>0.2865010832087389</v>
+        <v>0.3029017789033656</v>
       </c>
       <c r="U56" t="n">
-        <v>3362</v>
+        <v>3554</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1308387744851833</v>
+        <v>0.1719649683069628</v>
       </c>
     </row>
   </sheetData>

--- a/정원/project_3/2_4_지청_신설_표준화.xlsx
+++ b/정원/project_3/2_4_지청_신설_표준화.xlsx
@@ -604,13 +604,13 @@
         <v>1979</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3232603724273113</v>
+        <v>0.3322699798522498</v>
       </c>
       <c r="Q2" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="S2" t="n">
         <v>4958</v>
@@ -619,10 +619,10 @@
         <v>0.07564153418972935</v>
       </c>
       <c r="U2" t="n">
-        <v>9926</v>
+        <v>8102</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4802825760874825</v>
+        <v>0.4319223797846252</v>
       </c>
     </row>
     <row r="3">
@@ -681,16 +681,16 @@
         <v>0.8530541032583325</v>
       </c>
       <c r="O3" t="n">
-        <v>2063</v>
+        <v>2034</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3369813786344332</v>
+        <v>0.3415043653458697</v>
       </c>
       <c r="Q3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06617647058823529</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>69</v>
@@ -699,10 +699,10 @@
         <v>0.001052695816678363</v>
       </c>
       <c r="U3" t="n">
-        <v>17926</v>
+        <v>17967</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8673731068853728</v>
+        <v>0.9578313253012049</v>
       </c>
     </row>
     <row r="4">
@@ -761,16 +761,16 @@
         <v>0.8586126412099711</v>
       </c>
       <c r="O4" t="n">
-        <v>5303</v>
+        <v>5138</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8662201894805619</v>
+        <v>0.8626595030221625</v>
       </c>
       <c r="Q4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1691176470588235</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="S4" t="n">
         <v>8782</v>
@@ -779,10 +779,10 @@
         <v>0.1339822414792665</v>
       </c>
       <c r="U4" t="n">
-        <v>16209</v>
+        <v>17127</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7842938017128755</v>
+        <v>0.9130504318157586</v>
       </c>
     </row>
     <row r="5">
@@ -841,16 +841,16 @@
         <v>0.6172404537391467</v>
       </c>
       <c r="O5" t="n">
-        <v>2163</v>
+        <v>2058</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3533159098333878</v>
+        <v>0.3455339153794493</v>
       </c>
       <c r="Q5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S5" t="n">
         <v>1664</v>
@@ -859,10 +859,10 @@
         <v>0.02538675128917096</v>
       </c>
       <c r="U5" t="n">
-        <v>10795</v>
+        <v>9371</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5223302849954033</v>
+        <v>0.4995735153001386</v>
       </c>
     </row>
     <row r="6">
@@ -921,16 +921,16 @@
         <v>0.8400732891420035</v>
       </c>
       <c r="O6" t="n">
-        <v>2827</v>
+        <v>2698</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4617771969944462</v>
+        <v>0.4529885829415715</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.2</v>
       </c>
       <c r="S6" t="n">
         <v>9494</v>
@@ -939,10 +939,10 @@
         <v>0.1448448417904983</v>
       </c>
       <c r="U6" t="n">
-        <v>12562</v>
+        <v>12064</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6078289059853873</v>
+        <v>0.6431389273909799</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         <v>0.4085356175893941</v>
       </c>
       <c r="O7" t="n">
-        <v>2072</v>
+        <v>1944</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3384514864423391</v>
+        <v>0.3263935527199462</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="S7" t="n">
         <v>4999</v>
@@ -1019,10 +1019,10 @@
         <v>0.07626704909529186</v>
       </c>
       <c r="U7" t="n">
-        <v>7886</v>
+        <v>7078</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3815744907340204</v>
+        <v>0.377332338202367</v>
       </c>
     </row>
     <row r="8">
@@ -1081,16 +1081,16 @@
         <v>0.6780342638409113</v>
       </c>
       <c r="O8" t="n">
-        <v>2222</v>
+        <v>2089</v>
       </c>
       <c r="P8" t="n">
-        <v>0.362953283240771</v>
+        <v>0.3507387508394896</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S8" t="n">
         <v>558</v>
@@ -1099,10 +1099,10 @@
         <v>0.00851310530009459</v>
       </c>
       <c r="U8" t="n">
-        <v>11845</v>
+        <v>12107</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5731359171626265</v>
+        <v>0.6454312826527349</v>
       </c>
     </row>
     <row r="9">
@@ -1161,16 +1161,16 @@
         <v>0.6233906731397628</v>
       </c>
       <c r="O9" t="n">
-        <v>4594</v>
+        <v>4422</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7504083632799738</v>
+        <v>0.7424445936870383</v>
       </c>
       <c r="Q9" t="n">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="S9" t="n">
         <v>1779</v>
@@ -1179,10 +1179,10 @@
         <v>0.02714124431696823</v>
       </c>
       <c r="U9" t="n">
-        <v>14981</v>
+        <v>12582</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7248754052353994</v>
+        <v>0.670753811707005</v>
       </c>
     </row>
     <row r="10">
@@ -1241,16 +1241,16 @@
         <v>0.4624066380356643</v>
       </c>
       <c r="O10" t="n">
-        <v>3780</v>
+        <v>3638</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6174452793204835</v>
+        <v>0.6108126259234385</v>
       </c>
       <c r="Q10" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="S10" t="n">
         <v>65546</v>
@@ -1259,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>12137</v>
+        <v>11478</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5872647215367494</v>
+        <v>0.6118989231261328</v>
       </c>
     </row>
     <row r="11">
@@ -1321,16 +1321,16 @@
         <v>0.4683969750723555</v>
       </c>
       <c r="O11" t="n">
-        <v>3093</v>
+        <v>2930</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5052270499836655</v>
+        <v>0.4919408999328408</v>
       </c>
       <c r="Q11" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="S11" t="n">
         <v>108</v>
@@ -1339,10 +1339,10 @@
         <v>0.001647697800018308</v>
       </c>
       <c r="U11" t="n">
-        <v>11129</v>
+        <v>10626</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5384913146562152</v>
+        <v>0.5664783025908946</v>
       </c>
     </row>
     <row r="12">
@@ -1401,16 +1401,16 @@
         <v>0.3439804873494539</v>
       </c>
       <c r="O12" t="n">
-        <v>2936</v>
+        <v>3005</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4795818360013068</v>
+        <v>0.5045332437877771</v>
       </c>
       <c r="Q12" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2794117647058824</v>
+        <v>0.4</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10279</v>
+        <v>8897</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4973629457589394</v>
+        <v>0.4743042968333511</v>
       </c>
     </row>
     <row r="13">
@@ -1481,16 +1481,16 @@
         <v>0.5480837456820091</v>
       </c>
       <c r="O13" t="n">
-        <v>3734</v>
+        <v>3552</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6099313949689644</v>
+        <v>0.5963734049697784</v>
       </c>
       <c r="Q13" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="S13" t="n">
         <v>1789</v>
@@ -1499,10 +1499,10 @@
         <v>0.02729380892808104</v>
       </c>
       <c r="U13" t="n">
-        <v>14308</v>
+        <v>12274</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6923114143320269</v>
+        <v>0.6543341507623414</v>
       </c>
     </row>
     <row r="14">
@@ -1561,16 +1561,16 @@
         <v>0.8162624871627299</v>
       </c>
       <c r="O14" t="n">
-        <v>5393</v>
+        <v>4148</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8809212675596211</v>
+        <v>0.6964405641370047</v>
       </c>
       <c r="Q14" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8014705882352942</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="S14" t="n">
         <v>34886</v>
@@ -1579,10 +1579,10 @@
         <v>0.5322369023281359</v>
       </c>
       <c r="U14" t="n">
-        <v>19558</v>
+        <v>14715</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9463395751681425</v>
+        <v>0.7844652948075488</v>
       </c>
     </row>
     <row r="15">
@@ -1641,16 +1641,16 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>6122</v>
+        <v>5956</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4191176470588235</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="S15" t="n">
         <v>1081</v>
@@ -1659,7 +1659,7 @@
         <v>0.01649223446129436</v>
       </c>
       <c r="U15" t="n">
-        <v>20667</v>
+        <v>18758</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -1721,16 +1721,16 @@
         <v>0.5648982354588741</v>
       </c>
       <c r="O16" t="n">
-        <v>2824</v>
+        <v>2746</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4612871610584776</v>
+        <v>0.4610476830087307</v>
       </c>
       <c r="Q16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="S16" t="n">
         <v>1803</v>
@@ -1739,10 +1739,10 @@
         <v>0.02750739938363897</v>
       </c>
       <c r="U16" t="n">
-        <v>9318</v>
+        <v>9050</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4508636957468428</v>
+        <v>0.4824608167182002</v>
       </c>
     </row>
     <row r="17">
@@ -1801,16 +1801,16 @@
         <v>0.5172019419288582</v>
       </c>
       <c r="O17" t="n">
-        <v>3761</v>
+        <v>3512</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6143417183926821</v>
+        <v>0.5896574882471457</v>
       </c>
       <c r="Q17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.4</v>
       </c>
       <c r="S17" t="n">
         <v>381</v>
@@ -1819,10 +1819,10 @@
         <v>0.005812711683397919</v>
       </c>
       <c r="U17" t="n">
-        <v>11653</v>
+        <v>11330</v>
       </c>
       <c r="V17" t="n">
-        <v>0.563845744423477</v>
+        <v>0.6040089561786971</v>
       </c>
     </row>
     <row r="18">
@@ -1881,16 +1881,16 @@
         <v>0.3739228363364765</v>
       </c>
       <c r="O18" t="n">
-        <v>2233</v>
+        <v>2947</v>
       </c>
       <c r="P18" t="n">
-        <v>0.364750081672656</v>
+        <v>0.4947951645399597</v>
       </c>
       <c r="Q18" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3308823529411765</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="S18" t="n">
         <v>14444</v>
@@ -1899,10 +1899,10 @@
         <v>0.2203643242913374</v>
       </c>
       <c r="U18" t="n">
-        <v>8097</v>
+        <v>8109</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3917840034838148</v>
+        <v>0.432295553897004</v>
       </c>
     </row>
     <row r="19">
@@ -1961,16 +1961,16 @@
         <v>0.1699222761646905</v>
       </c>
       <c r="O19" t="n">
-        <v>1493</v>
+        <v>1468</v>
       </c>
       <c r="P19" t="n">
-        <v>0.243874550800392</v>
+        <v>0.2464741437206179</v>
       </c>
       <c r="Q19" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3602941176470588</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3033</v>
+        <v>3807</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1467556974887502</v>
+        <v>0.2029534065465401</v>
       </c>
     </row>
     <row r="20">
@@ -2041,16 +2041,16 @@
         <v>0.1567990850527495</v>
       </c>
       <c r="O20" t="n">
-        <v>1649</v>
+        <v>1629</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2693564194707612</v>
+        <v>0.2735057085292142</v>
       </c>
       <c r="Q20" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2953</v>
+        <v>8811</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1428847921807713</v>
+        <v>0.4697195863098411</v>
       </c>
     </row>
     <row r="21">
@@ -2121,16 +2121,16 @@
         <v>0.1674831948464196</v>
       </c>
       <c r="O21" t="n">
-        <v>1183</v>
+        <v>1147</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1932375040836328</v>
+        <v>0.1925789120214909</v>
       </c>
       <c r="Q21" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2793</v>
+        <v>196</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1351429815648135</v>
+        <v>0.01044887514660412</v>
       </c>
     </row>
     <row r="22">
@@ -2201,16 +2201,16 @@
         <v>0.0414363738213052</v>
       </c>
       <c r="O22" t="n">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3211368833714472</v>
+        <v>0.3287441235728677</v>
       </c>
       <c r="Q22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04411764705882353</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>757</v>
+        <v>1601</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03662844147675037</v>
+        <v>0.08535025055976117</v>
       </c>
     </row>
     <row r="23">
@@ -2281,16 +2281,16 @@
         <v>0.04434926710857996</v>
       </c>
       <c r="O23" t="n">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1948709572035283</v>
+        <v>0.1991269308260578</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>768</v>
+        <v>505</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03716069095659747</v>
+        <v>0.0269218466787504</v>
       </c>
     </row>
     <row r="24">
@@ -2361,16 +2361,16 @@
         <v>0.6162484828680795</v>
       </c>
       <c r="O24" t="n">
-        <v>3326</v>
+        <v>3117</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5432865076772296</v>
+        <v>0.5233378106111484</v>
       </c>
       <c r="Q24" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9852941176470589</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="S24" t="n">
         <v>632</v>
@@ -2379,10 +2379,10 @@
         <v>0.009642083422329356</v>
       </c>
       <c r="U24" t="n">
-        <v>10360</v>
+        <v>9962</v>
       </c>
       <c r="V24" t="n">
-        <v>0.501282237383268</v>
+        <v>0.531080072502399</v>
       </c>
     </row>
     <row r="25">
@@ -2441,16 +2441,16 @@
         <v>0.4321258519279246</v>
       </c>
       <c r="O25" t="n">
-        <v>2330</v>
+        <v>2245</v>
       </c>
       <c r="P25" t="n">
-        <v>0.380594576935642</v>
+        <v>0.3769308260577569</v>
       </c>
       <c r="Q25" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="S25" t="n">
         <v>1077</v>
@@ -2459,10 +2459,10 @@
         <v>0.01643120861684923</v>
       </c>
       <c r="U25" t="n">
-        <v>9022</v>
+        <v>8866</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4365413461073209</v>
+        <v>0.4726516686213882</v>
       </c>
     </row>
     <row r="26">
@@ -2521,16 +2521,16 @@
         <v>0.3025371113808235</v>
       </c>
       <c r="O26" t="n">
-        <v>2320</v>
+        <v>2277</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3789611238157465</v>
+        <v>0.382303559435863</v>
       </c>
       <c r="Q26" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2</v>
       </c>
       <c r="S26" t="n">
         <v>14168</v>
@@ -2539,10 +2539,10 @@
         <v>0.2161535410246239</v>
       </c>
       <c r="U26" t="n">
-        <v>5786</v>
+        <v>5206</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2799632263995742</v>
+        <v>0.2775349184348012</v>
       </c>
     </row>
     <row r="27">
@@ -2601,16 +2601,16 @@
         <v>0.4948230790775838</v>
       </c>
       <c r="O27" t="n">
-        <v>3653</v>
+        <v>3546</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5967004246978111</v>
+        <v>0.5953660174613835</v>
       </c>
       <c r="Q27" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2573529411764706</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="S27" t="n">
         <v>6254</v>
@@ -2619,10 +2619,10 @@
         <v>0.09541390778994904</v>
       </c>
       <c r="U27" t="n">
-        <v>8386</v>
+        <v>7427</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4057676489088886</v>
+        <v>0.3959377332338203</v>
       </c>
     </row>
     <row r="28">
@@ -2681,16 +2681,16 @@
         <v>0.2720614321725329</v>
       </c>
       <c r="O28" t="n">
-        <v>2857</v>
+        <v>2082</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4666775563541327</v>
+        <v>0.3495634654130289</v>
       </c>
       <c r="Q28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="S28" t="n">
         <v>27714</v>
@@ -2699,10 +2699,10 @@
         <v>0.4228175632380313</v>
       </c>
       <c r="U28" t="n">
-        <v>4961</v>
+        <v>4300</v>
       </c>
       <c r="V28" t="n">
-        <v>0.2400445154110418</v>
+        <v>0.2292355261754984</v>
       </c>
     </row>
     <row r="29">
@@ -2761,16 +2761,16 @@
         <v>0.4121860703949211</v>
       </c>
       <c r="O29" t="n">
-        <v>3484</v>
+        <v>3384</v>
       </c>
       <c r="P29" t="n">
-        <v>0.569095066971578</v>
+        <v>0.5681665547347213</v>
       </c>
       <c r="Q29" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="S29" t="n">
         <v>151</v>
@@ -2779,10 +2779,10 @@
         <v>0.002303725627803375</v>
       </c>
       <c r="U29" t="n">
-        <v>7848</v>
+        <v>6932</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3797358107127304</v>
+        <v>0.3695489924298966</v>
       </c>
     </row>
     <row r="30">
@@ -2841,16 +2841,16 @@
         <v>0.2424306787414807</v>
       </c>
       <c r="O30" t="n">
-        <v>1651</v>
+        <v>1613</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2696831100947403</v>
+        <v>0.2708193418401612</v>
       </c>
       <c r="Q30" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2279411764705882</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3536</v>
+        <v>3161</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1710940146126675</v>
+        <v>0.1685147670327327</v>
       </c>
     </row>
     <row r="31">
@@ -2921,16 +2921,16 @@
         <v>0.1490255344972458</v>
       </c>
       <c r="O31" t="n">
-        <v>2358</v>
+        <v>2330</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3851682456713492</v>
+        <v>0.3912021490933513</v>
       </c>
       <c r="Q31" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1985294117647059</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="S31" t="n">
         <v>3864</v>
@@ -2939,10 +2939,10 @@
         <v>0.05895096573398834</v>
       </c>
       <c r="U31" t="n">
-        <v>3278</v>
+        <v>2844</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1586103449944356</v>
+        <v>0.151615310800725</v>
       </c>
     </row>
     <row r="32">
@@ -3001,16 +3001,16 @@
         <v>0.3938941275324433</v>
       </c>
       <c r="O32" t="n">
-        <v>2449</v>
+        <v>2563</v>
       </c>
       <c r="P32" t="n">
-        <v>0.4000326690623979</v>
+        <v>0.4303223640026864</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3676470588235294</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="S32" t="n">
         <v>2547</v>
@@ -3019,10 +3019,10 @@
         <v>0.03885820645043176</v>
       </c>
       <c r="U32" t="n">
-        <v>7021</v>
+        <v>7597</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3397203270914985</v>
+        <v>0.4050005331058748</v>
       </c>
     </row>
     <row r="33">
@@ -3081,16 +3081,16 @@
         <v>0.512292269629353</v>
       </c>
       <c r="O33" t="n">
-        <v>3500</v>
+        <v>3350</v>
       </c>
       <c r="P33" t="n">
-        <v>0.5717085919634106</v>
+        <v>0.5624580255204835</v>
       </c>
       <c r="Q33" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2426470588235294</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="S33" t="n">
         <v>2178</v>
@@ -3099,10 +3099,10 @@
         <v>0.03322857230036921</v>
       </c>
       <c r="U33" t="n">
-        <v>9109</v>
+        <v>8491</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4407509556297479</v>
+        <v>0.4526601983153855</v>
       </c>
     </row>
     <row r="34">
@@ -3161,16 +3161,16 @@
         <v>0.3489053309681636</v>
       </c>
       <c r="O34" t="n">
-        <v>2987</v>
+        <v>2935</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4879124469127736</v>
+        <v>0.4927803895231699</v>
       </c>
       <c r="Q34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="S34" t="n">
         <v>26678</v>
@@ -3179,10 +3179,10 @@
         <v>0.4070118695267446</v>
       </c>
       <c r="U34" t="n">
-        <v>6366</v>
+        <v>5299</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3080272898824212</v>
+        <v>0.2824928030706899</v>
       </c>
     </row>
     <row r="35">
@@ -3241,16 +3241,16 @@
         <v>0.2444928111287462</v>
       </c>
       <c r="O35" t="n">
-        <v>1195</v>
+        <v>1137</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1951976478275073</v>
+        <v>0.1908999328408328</v>
       </c>
       <c r="Q35" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>0.08088235294117647</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="S35" t="n">
         <v>476</v>
@@ -3259,10 +3259,10 @@
         <v>0.007262075488969579</v>
       </c>
       <c r="U35" t="n">
-        <v>3484</v>
+        <v>2953</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1685779261624812</v>
+        <v>0.1574261648363365</v>
       </c>
     </row>
     <row r="36">
@@ -3321,16 +3321,16 @@
         <v>0.09050858930071888</v>
       </c>
       <c r="O36" t="n">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1703691604050964</v>
+        <v>0.172431161853593</v>
       </c>
       <c r="Q36" t="n">
         <v>12</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3339,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1572</v>
+        <v>1342</v>
       </c>
       <c r="V36" t="n">
-        <v>0.07606328930178545</v>
+        <v>0.07154280840174859</v>
       </c>
     </row>
     <row r="37">
@@ -3401,16 +3401,16 @@
         <v>0.08315983568294277</v>
       </c>
       <c r="O37" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1143417183926821</v>
+        <v>0.1145063801208865</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="S37" t="n">
         <v>327</v>
@@ -3419,10 +3419,10 @@
         <v>0.004988862783388765</v>
       </c>
       <c r="U37" t="n">
-        <v>1444</v>
+        <v>1146</v>
       </c>
       <c r="V37" t="n">
-        <v>0.06986984080901922</v>
+        <v>0.06109393325514447</v>
       </c>
     </row>
     <row r="38">
@@ -3481,16 +3481,16 @@
         <v>0.6461523200448137</v>
       </c>
       <c r="O38" t="n">
-        <v>4344</v>
+        <v>4275</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7095720352825874</v>
+        <v>0.7177635997313633</v>
       </c>
       <c r="Q38" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3602941176470588</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="S38" t="n">
         <v>2243</v>
@@ -3499,10 +3499,10 @@
         <v>0.03422024227260245</v>
       </c>
       <c r="U38" t="n">
-        <v>13325</v>
+        <v>12956</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6447476653602361</v>
+        <v>0.6906919714255251</v>
       </c>
     </row>
     <row r="39">
@@ -3561,16 +3561,16 @@
         <v>0.3608883390906545</v>
       </c>
       <c r="O39" t="n">
-        <v>2533</v>
+        <v>2425</v>
       </c>
       <c r="P39" t="n">
-        <v>0.4137536752695198</v>
+        <v>0.4071524513096038</v>
       </c>
       <c r="Q39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07352941176470588</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="S39" t="n">
         <v>325</v>
@@ -3579,10 +3579,10 @@
         <v>0.004958349861166204</v>
       </c>
       <c r="U39" t="n">
-        <v>6425</v>
+        <v>5899</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3108820825470557</v>
+        <v>0.3144791555602943</v>
       </c>
     </row>
     <row r="40">
@@ -3641,16 +3641,16 @@
         <v>0.1353048268135562</v>
       </c>
       <c r="O40" t="n">
-        <v>1158</v>
+        <v>1115</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1891538712838942</v>
+        <v>0.1872061786433848</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="S40" t="n">
         <v>36</v>
@@ -3659,10 +3659,10 @@
         <v>0.0005492326000061026</v>
       </c>
       <c r="U40" t="n">
-        <v>2589</v>
+        <v>2271</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1252721730294673</v>
+        <v>0.1210683441731528</v>
       </c>
     </row>
     <row r="41">
@@ -3721,16 +3721,16 @@
         <v>0.1227301372420876</v>
       </c>
       <c r="O41" t="n">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="P41" t="n">
-        <v>0.181639986932375</v>
+        <v>0.1833445265278711</v>
       </c>
       <c r="Q41" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R41" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="S41" t="n">
         <v>245</v>
@@ -3739,10 +3739,10 @@
         <v>0.003737832972263754</v>
       </c>
       <c r="U41" t="n">
-        <v>2746</v>
+        <v>2328</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1328688246963759</v>
+        <v>0.1241070476596652</v>
       </c>
     </row>
     <row r="42">
@@ -3801,16 +3801,16 @@
         <v>0.189660162449818</v>
       </c>
       <c r="O42" t="n">
-        <v>2048</v>
+        <v>2025</v>
       </c>
       <c r="P42" t="n">
-        <v>0.33453119895459</v>
+        <v>0.3399932840832774</v>
       </c>
       <c r="Q42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1323529411764706</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="S42" t="n">
         <v>280</v>
@@ -3819,10 +3819,10 @@
         <v>0.004271809111158576</v>
       </c>
       <c r="U42" t="n">
-        <v>4205</v>
+        <v>3527</v>
       </c>
       <c r="V42" t="n">
-        <v>0.2034644602506411</v>
+        <v>0.1880264420513914</v>
       </c>
     </row>
     <row r="43">
@@ -3881,16 +3881,16 @@
         <v>0.3363878255998506</v>
       </c>
       <c r="O43" t="n">
-        <v>2669</v>
+        <v>2618</v>
       </c>
       <c r="P43" t="n">
-        <v>0.435968637700098</v>
+        <v>0.4395567494963062</v>
       </c>
       <c r="Q43" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="S43" t="n">
         <v>19739</v>
@@ -3899,10 +3899,10 @@
         <v>0.3011472858755683</v>
       </c>
       <c r="U43" t="n">
-        <v>4915</v>
+        <v>4195</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2378187448589539</v>
+        <v>0.2236379144898177</v>
       </c>
     </row>
     <row r="44">
@@ -3961,16 +3961,16 @@
         <v>0.6883787694893101</v>
       </c>
       <c r="O44" t="n">
-        <v>4409</v>
+        <v>4008</v>
       </c>
       <c r="P44" t="n">
-        <v>0.7201894805619079</v>
+        <v>0.6729348556077904</v>
       </c>
       <c r="Q44" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8455882352941176</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S44" t="n">
         <v>46341</v>
@@ -3979,10 +3979,10 @@
         <v>0.7069996643578556</v>
       </c>
       <c r="U44" t="n">
-        <v>10101</v>
+        <v>9548</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4887501814486863</v>
+        <v>0.5090094892845719</v>
       </c>
     </row>
     <row r="45">
@@ -4041,16 +4041,16 @@
         <v>0.477842871814023</v>
       </c>
       <c r="O45" t="n">
-        <v>3492</v>
+        <v>3334</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5704018294674943</v>
+        <v>0.5597716588314305</v>
       </c>
       <c r="Q45" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="S45" t="n">
         <v>5803</v>
@@ -4059,10 +4059,10 @@
         <v>0.08853324382876147</v>
       </c>
       <c r="U45" t="n">
-        <v>7463</v>
+        <v>6925</v>
       </c>
       <c r="V45" t="n">
-        <v>0.361107078918082</v>
+        <v>0.3691758183175178</v>
       </c>
     </row>
     <row r="46">
@@ -4121,16 +4121,16 @@
         <v>0.6071818691065261</v>
       </c>
       <c r="O46" t="n">
-        <v>4147</v>
+        <v>4003</v>
       </c>
       <c r="P46" t="n">
-        <v>0.6773930088206469</v>
+        <v>0.6720953660174613</v>
       </c>
       <c r="Q46" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="S46" t="n">
         <v>12016</v>
@@ -4139,10 +4139,10 @@
         <v>0.183321636713148</v>
       </c>
       <c r="U46" t="n">
-        <v>11791</v>
+        <v>9933</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5705230560797406</v>
+        <v>0.5295340654654014</v>
       </c>
     </row>
     <row r="47">
@@ -4201,16 +4201,16 @@
         <v>0.2416336009709644</v>
       </c>
       <c r="O47" t="n">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="P47" t="n">
-        <v>0.3301208755308723</v>
+        <v>0.3326057756883815</v>
       </c>
       <c r="Q47" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="R47" t="n">
-        <v>0.25</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="S47" t="n">
         <v>132</v>
@@ -4219,10 +4219,10 @@
         <v>0.002013852866689043</v>
       </c>
       <c r="U47" t="n">
-        <v>4139</v>
+        <v>3322</v>
       </c>
       <c r="V47" t="n">
-        <v>0.2002709633715585</v>
+        <v>0.1770977716174432</v>
       </c>
     </row>
     <row r="48">
@@ -4281,16 +4281,16 @@
         <v>0.1146391560078424</v>
       </c>
       <c r="O48" t="n">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1855602744201242</v>
+        <v>0.1892209536601746</v>
       </c>
       <c r="Q48" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S48" t="n">
         <v>26460</v>
@@ -4299,10 +4299,10 @@
         <v>0.4036859610044854</v>
       </c>
       <c r="U48" t="n">
-        <v>2117</v>
+        <v>1687</v>
       </c>
       <c r="V48" t="n">
-        <v>0.1024338317123917</v>
+        <v>0.08993496108327113</v>
       </c>
     </row>
     <row r="49">
@@ -4364,13 +4364,13 @@
         <v>648</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1058477621692257</v>
+        <v>0.1087978509066488</v>
       </c>
       <c r="Q49" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>0.08088235294117647</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="S49" t="n">
         <v>39405</v>
@@ -4379,10 +4379,10 @@
         <v>0.6011808500900131</v>
       </c>
       <c r="U49" t="n">
-        <v>1556</v>
+        <v>1204</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07528910824018968</v>
+        <v>0.06418594732913957</v>
       </c>
     </row>
     <row r="50">
@@ -4441,16 +4441,16 @@
         <v>0.6675462141723462</v>
       </c>
       <c r="O50" t="n">
-        <v>4169</v>
+        <v>4221</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6809866056844168</v>
+        <v>0.7086971121558092</v>
       </c>
       <c r="Q50" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="R50" t="n">
-        <v>0.6176470588235294</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
         <v>26968</v>
@@ -4459,10 +4459,10 @@
         <v>0.411436243249016</v>
       </c>
       <c r="U50" t="n">
-        <v>15119</v>
+        <v>11763</v>
       </c>
       <c r="V50" t="n">
-        <v>0.731552716891663</v>
+        <v>0.627092440558695</v>
       </c>
     </row>
     <row r="51">
@@ -4521,16 +4521,16 @@
         <v>0.3556915787508169</v>
       </c>
       <c r="O51" t="n">
-        <v>2211</v>
+        <v>2070</v>
       </c>
       <c r="P51" t="n">
-        <v>0.361156484808886</v>
+        <v>0.3475486903962391</v>
       </c>
       <c r="Q51" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1838235294117647</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="S51" t="n">
         <v>1141</v>
@@ -4539,10 +4539,10 @@
         <v>0.0174076221279712</v>
       </c>
       <c r="U51" t="n">
-        <v>6781</v>
+        <v>7195</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3281076111675618</v>
+        <v>0.3835696769378398</v>
       </c>
     </row>
     <row r="52">
@@ -4601,16 +4601,16 @@
         <v>0.5205081224908972</v>
       </c>
       <c r="O52" t="n">
-        <v>1230</v>
+        <v>1165</v>
       </c>
       <c r="P52" t="n">
-        <v>0.2009147337471414</v>
+        <v>0.1956010745466756</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2205882352941176</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="S52" t="n">
         <v>3084</v>
@@ -4619,10 +4619,10 @@
         <v>0.04705092606718946</v>
       </c>
       <c r="U52" t="n">
-        <v>6173</v>
+        <v>8796</v>
       </c>
       <c r="V52" t="n">
-        <v>0.2986887308269222</v>
+        <v>0.468919927497601</v>
       </c>
     </row>
     <row r="53">
@@ -4681,16 +4681,16 @@
         <v>0.1734116795817384</v>
       </c>
       <c r="O53" t="n">
-        <v>1208</v>
+        <v>1314</v>
       </c>
       <c r="P53" t="n">
-        <v>0.1973211368833714</v>
+        <v>0.2206178643384822</v>
       </c>
       <c r="Q53" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2279411764705882</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="S53" t="n">
         <v>12692</v>
@@ -4699,10 +4699,10 @@
         <v>0.1936350044243737</v>
       </c>
       <c r="U53" t="n">
-        <v>2767</v>
+        <v>2732</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1338849373397203</v>
+        <v>0.1456445250026655</v>
       </c>
     </row>
     <row r="54">
@@ -4761,16 +4761,16 @@
         <v>0.2349337130053216</v>
       </c>
       <c r="O54" t="n">
-        <v>2177</v>
+        <v>1902</v>
       </c>
       <c r="P54" t="n">
-        <v>0.3556027442012414</v>
+        <v>0.319341840161182</v>
       </c>
       <c r="Q54" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4779,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>7623</v>
+        <v>7075</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3688488895340398</v>
+        <v>0.377172406439919</v>
       </c>
     </row>
     <row r="55">
@@ -4841,16 +4841,16 @@
         <v>0.225403790495752</v>
       </c>
       <c r="O55" t="n">
-        <v>1577</v>
+        <v>1312</v>
       </c>
       <c r="P55" t="n">
-        <v>0.2575955570075139</v>
+        <v>0.2202820685023506</v>
       </c>
       <c r="Q55" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="S55" t="n">
         <v>1641</v>
@@ -4859,10 +4859,10 @@
         <v>0.02503585268361151</v>
       </c>
       <c r="U55" t="n">
-        <v>4521</v>
+        <v>3113</v>
       </c>
       <c r="V55" t="n">
-        <v>0.2187545362171578</v>
+        <v>0.1659558588335643</v>
       </c>
     </row>
     <row r="56">
@@ -4921,16 +4921,16 @@
         <v>0.2307067500700215</v>
       </c>
       <c r="O56" t="n">
-        <v>2046</v>
+        <v>2702</v>
       </c>
       <c r="P56" t="n">
-        <v>0.3342045083306109</v>
+        <v>0.4536601746138348</v>
       </c>
       <c r="Q56" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R56" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S56" t="n">
         <v>19854</v>
@@ -4939,10 +4939,10 @@
         <v>0.3029017789033656</v>
       </c>
       <c r="U56" t="n">
-        <v>3554</v>
+        <v>2654</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1719649683069628</v>
+        <v>0.1414862991790169</v>
       </c>
     </row>
   </sheetData>
